--- a/lib/win_prefecture.xlsx
+++ b/lib/win_prefecture.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masaki/Downloads/programming/d3/lib/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masaki/Downloads/programming/d3/infovis_baseball-gh-pages/lib/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="28720" windowHeight="17540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="4040" yWindow="1460" windowWidth="28720" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="win_prefecture" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2915" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2963" uniqueCount="826">
   <si>
     <t>prefecture</t>
   </si>
@@ -2363,6 +2363,160 @@
   </si>
   <si>
     <t>summer_win</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八戸学院光星</t>
+  </si>
+  <si>
+    <t>花巻東</t>
+  </si>
+  <si>
+    <t>仙台育英</t>
+  </si>
+  <si>
+    <t>聖光学院</t>
+  </si>
+  <si>
+    <t>土浦日大</t>
+  </si>
+  <si>
+    <t>作新学院</t>
+  </si>
+  <si>
+    <t>前橋育英</t>
+  </si>
+  <si>
+    <t>山梨学院</t>
+  </si>
+  <si>
+    <t>佐久長聖</t>
+  </si>
+  <si>
+    <t>中越</t>
+  </si>
+  <si>
+    <t>高岡商</t>
+  </si>
+  <si>
+    <t>星稜</t>
+  </si>
+  <si>
+    <t>敦賀気比</t>
+  </si>
+  <si>
+    <t>常葉大菊川</t>
+  </si>
+  <si>
+    <t>龍谷大平安</t>
+  </si>
+  <si>
+    <t>奈良大付</t>
+  </si>
+  <si>
+    <t>智弁和歌山</t>
+  </si>
+  <si>
+    <t>創志学園</t>
+  </si>
+  <si>
+    <t>鳥取城北</t>
+  </si>
+  <si>
+    <t>広陵</t>
+  </si>
+  <si>
+    <t>益田東</t>
+  </si>
+  <si>
+    <t>丸亀城西</t>
+  </si>
+  <si>
+    <t>済美</t>
+  </si>
+  <si>
+    <t>鳴門</t>
+  </si>
+  <si>
+    <t>高知商</t>
+  </si>
+  <si>
+    <t>佐賀商</t>
+  </si>
+  <si>
+    <t>創成館</t>
+  </si>
+  <si>
+    <t>東海大星翔</t>
+  </si>
+  <si>
+    <t>藤蔭</t>
+  </si>
+  <si>
+    <t>日南学園</t>
+  </si>
+  <si>
+    <t>鹿児島実</t>
+  </si>
+  <si>
+    <t>興南</t>
+  </si>
+  <si>
+    <t>team_100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金足農</t>
+  </si>
+  <si>
+    <t>羽黒</t>
+  </si>
+  <si>
+    <t>大垣日大</t>
+  </si>
+  <si>
+    <t>白山</t>
+  </si>
+  <si>
+    <t>近江</t>
+  </si>
+  <si>
+    <t>下関国際</t>
+  </si>
+  <si>
+    <t>大阪桐蔭, 近大付</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>報徳学園, 明石商</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二松学舎大付, 日大三</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>愛産大三河, 愛工大名電</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>慶応, 横浜</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>折尾愛真, 沖学園</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木更津総合, 中央学院</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旭川大, 北照</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花咲徳栄, 浦和学院</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2370,7 +2524,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2404,6 +2558,12 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FF252525"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2426,11 +2586,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2709,397 +2871,783 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>170</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>137</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>818</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
         <v>177</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>819</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <v>130</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>820</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
         <v>120</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>794</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
         <v>119</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>797</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
         <v>126</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>821</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
         <v>120</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>792</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
         <v>121</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>800</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
         <v>94</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>802</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12">
         <v>92</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>822</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13">
         <v>87</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>791</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14">
         <v>72</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>813</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15">
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>801</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16">
         <v>82</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>793</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17">
         <v>96</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>823</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18">
         <v>67</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>799</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19">
         <v>72</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>824</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20">
         <v>70</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>825</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21">
         <v>76</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>816</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>795</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23">
         <v>70</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>784</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24">
         <v>63</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>805</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25">
         <v>69</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>780</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26">
         <v>57</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>783</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27">
         <v>70</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>809</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28">
         <v>66</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>808</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29">
         <v>53</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>790</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>786</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31">
         <v>53</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>782</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="B32">
         <v>58</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>806</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
       <c r="B33">
         <v>53</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>807</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
       <c r="B34">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>785</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>804</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>814</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="B37">
         <v>46</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>778</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
       <c r="B38">
         <v>45</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>811</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
       <c r="B39">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>796</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
       <c r="B40">
         <v>37</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>789</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
       <c r="B41">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>779</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
       <c r="B42">
         <v>34</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>815</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>43</v>
       </c>
       <c r="B43">
         <v>35</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>781</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
       <c r="B44">
         <v>38</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>803</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>45</v>
       </c>
       <c r="B45">
         <v>29</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>798</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>46</v>
       </c>
       <c r="B46">
         <v>28</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>788</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>47</v>
       </c>
       <c r="B47">
         <v>23</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>812</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" ht="23" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>48</v>
       </c>
       <c r="B48">
         <v>28</v>
       </c>
+      <c r="C48" t="s">
+        <v>787</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="4:7" ht="23" x14ac:dyDescent="0.3">
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="4:7" ht="23" x14ac:dyDescent="0.3">
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="4:7" ht="23" x14ac:dyDescent="0.3">
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="4:7" ht="23" x14ac:dyDescent="0.3">
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="4:7" ht="23" x14ac:dyDescent="0.3">
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="4:7" ht="23" x14ac:dyDescent="0.3">
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="4:7" ht="23" x14ac:dyDescent="0.3">
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="4:7" ht="23" x14ac:dyDescent="0.3">
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="4:7" ht="23" x14ac:dyDescent="0.3">
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3111,7 +3659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I662"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
